--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Confidential\MyDinnerDive\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136433C9-C778-4FE8-A746-C8083B2165FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02123BC-4156-40A6-B01A-B93167A71501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19365" yWindow="4380" windowWidth="17430" windowHeight="11205" xr2:uid="{2C4057A3-4DF4-41B5-A441-0D94A14DFD1E}"/>
+    <workbookView xWindow="-29025" yWindow="2115" windowWidth="17430" windowHeight="11205" xr2:uid="{2C4057A3-4DF4-41B5-A441-0D94A14DFD1E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="189">
   <si>
     <t>restaurant_id</t>
   </si>
@@ -62,9 +62,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>今天吃兩藍</t>
-  </si>
-  <si>
     <t>MAIN</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
   </si>
   <si>
     <t>2025-05-18 23:06:13</t>
-  </si>
-  <si>
-    <t>吃完湯匙都想帶回家</t>
   </si>
   <si>
     <t>咖哩煮很濃</t>
@@ -607,6 +601,18 @@
   </si>
   <si>
     <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一番湯屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-07-29 12:07:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這湯的香味可以拿去當香水賣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,7 +697,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,6 +708,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E49155C-24E6-44A5-B674-54852AEBDB71}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1054,28 +1063,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1109,25 +1118,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1135,25 +1144,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1161,25 +1170,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1187,25 +1196,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1213,25 +1222,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
         <v>28</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1239,22 +1248,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1262,22 +1272,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1285,22 +1296,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1308,25 +1320,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
         <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1334,22 +1346,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>51</v>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1357,22 +1370,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>55</v>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1380,22 +1394,23 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>59</v>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1403,25 +1418,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" t="s">
         <v>63</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1429,25 +1444,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="1">
         <v>4</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" t="s">
         <v>68</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1455,25 +1470,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>74</v>
+      <c r="F17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="H17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1481,25 +1496,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s">
         <v>77</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1507,25 +1522,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>83</v>
+      <c r="F19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1533,22 +1548,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>86</v>
+      <c r="F20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1556,22 +1571,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>89</v>
+      <c r="F21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1579,25 +1594,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" t="s">
         <v>92</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1605,25 +1620,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E23" s="1">
         <v>4</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>97</v>
+      <c r="F23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="H23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1631,22 +1646,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>101</v>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="H24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1654,19 +1670,20 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>104</v>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="H25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1674,25 +1691,25 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" t="s">
         <v>107</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1700,22 +1717,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" t="s">
         <v>111</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1723,25 +1740,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>117</v>
+      <c r="F28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="H28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1749,25 +1766,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E29" s="1">
         <v>4</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>121</v>
+      <c r="F29" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="H29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1775,25 +1792,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>125</v>
+      <c r="F30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="H30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1801,22 +1818,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" s="1">
         <v>5</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>128</v>
+      <c r="F31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1824,22 +1841,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" t="s">
         <v>130</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H32" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1847,25 +1864,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>135</v>
+      <c r="F33" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="H33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1873,25 +1890,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>139</v>
+      <c r="F34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="H34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1899,25 +1916,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>143</v>
+      <c r="F35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="H35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1925,19 +1942,20 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>145</v>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="H36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1945,22 +1963,23 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>148</v>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="H37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1968,22 +1987,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>151</v>
+      <c r="F38" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="H38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1991,25 +2010,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H39" t="s">
         <v>154</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H39" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2017,22 +2036,23 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>159</v>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="H40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2040,25 +2060,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>164</v>
+      <c r="F41" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="H41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2066,22 +2086,23 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>167</v>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="H42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2089,25 +2110,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>172</v>
+      <c r="F43" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="H43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2115,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>176</v>
+      <c r="F44" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="H44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2141,25 +2162,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E45" s="1">
         <v>4</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>179</v>
+      <c r="F45" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="H45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/restaurants.xlsx
+++ b/data/restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Confidential\MyDinnerDive\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02123BC-4156-40A6-B01A-B93167A71501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C00738-C1B8-4B6B-8FB4-C1234FAB61E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29025" yWindow="2115" windowWidth="17430" windowHeight="11205" xr2:uid="{2C4057A3-4DF4-41B5-A441-0D94A14DFD1E}"/>
+    <workbookView xWindow="-21585" yWindow="4770" windowWidth="19725" windowHeight="10830" xr2:uid="{2C4057A3-4DF4-41B5-A441-0D94A14DFD1E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="191">
   <si>
     <t>restaurant_id</t>
   </si>
@@ -74,18 +74,12 @@
     <t>2025-05-18 23:06:13</t>
   </si>
   <si>
-    <t>咖哩煮很濃</t>
-  </si>
-  <si>
     <t>https://images.unsplash.com/photo-1694953593181-6ce423500712?q=80&amp;w=2080&amp;auto=format&amp;fit=crop&amp;ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D</t>
   </si>
   <si>
     <t>2025-05-24 12:00:00</t>
   </si>
   <si>
-    <t>咖哩比我人生還濃</t>
-  </si>
-  <si>
     <t>鬆餅老師</t>
   </si>
   <si>
@@ -110,33 +104,15 @@
     <t>披薩大到可以當盾牌</t>
   </si>
   <si>
-    <t>大口吞飯店</t>
-  </si>
-  <si>
     <t>https://images.unsplash.com/photo-1700323449261-5332ce054718?q=80&amp;w=1931&amp;auto=format&amp;fit=crop&amp;ixlib=rb-4.1.0&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D</t>
   </si>
   <si>
     <t>2024-11-28 15:56:19</t>
   </si>
   <si>
-    <t>2025-05-24 15:14:52</t>
-  </si>
-  <si>
-    <t>丼飯多到看不到飯</t>
-  </si>
-  <si>
-    <t>義不容麵</t>
-  </si>
-  <si>
     <t>https://images.unsplash.com/photo-1673442635965-34f1b36d8944?q=80&amp;w=2070&amp;auto=format&amp;fit=crop&amp;ixlib=rb-4.1.0&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D</t>
   </si>
   <si>
-    <t>2025-05-24 15:30:31</t>
-  </si>
-  <si>
-    <t>義大利麵彎得像我人生軌跡</t>
-  </si>
-  <si>
     <t>尊爵有錢人</t>
   </si>
   <si>
@@ -158,9 +134,6 @@
     <t>2025-06-08 23:49:21</t>
   </si>
   <si>
-    <t>牛肉比麵還多，嚇爛</t>
-  </si>
-  <si>
     <t>No奶都來</t>
   </si>
   <si>
@@ -176,9 +149,6 @@
     <t>2025-06-14 14:51:48</t>
   </si>
   <si>
-    <t>奶茶濃得能蓋房子</t>
-  </si>
-  <si>
     <t>五十籃投手</t>
   </si>
   <si>
@@ -452,9 +422,6 @@
     <t>2025-05-30 14:09:28</t>
   </si>
   <si>
-    <t>早知道不點這個</t>
-  </si>
-  <si>
     <t>https://cdn.pixabay.com/photo/2021/10/21/12/38/pho-ga-6729006_1280.jpg</t>
   </si>
   <si>
@@ -534,9 +501,6 @@
   </si>
   <si>
     <t>2024-08-17 18:33:01</t>
-  </si>
-  <si>
-    <t>我吃過最像樣的飲料</t>
   </si>
   <si>
     <t>續杯會後悔</t>
@@ -613,6 +577,60 @@
   </si>
   <si>
     <t>這湯的香味可以拿去當香水賣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-07-29 16:41:19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日式咖哩店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飯淋咖哩郎</t>
+  </si>
+  <si>
+    <t>我喝過最像樣的飲料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飯丸本舖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳說中吃太快會跟飯丸變朋友的那間店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-07-29 17:06:19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麵有引力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主打「你不靠近，我麵也會拉你過來。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-07-29 17:05:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶味很濃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉比麵還多，驚訝！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹽味本舖</t>
+  </si>
+  <si>
+    <t>老闆只信三樣東西，鹽、柴魚和他的直覺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1049,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E49155C-24E6-44A5-B674-54852AEBDB71}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1063,28 +1081,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1118,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1133,10 +1151,10 @@
         <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="H3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1144,25 +1162,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1170,25 +1188,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1196,25 +1214,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1222,25 +1240,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1248,23 +1266,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1272,23 +1290,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1296,23 +1314,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1320,25 +1338,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1346,23 +1364,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1370,23 +1388,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1394,23 +1412,23 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1418,25 +1436,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1444,25 +1462,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1">
         <v>4</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1470,25 +1488,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1496,25 +1514,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1522,25 +1540,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1548,7 +1566,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -1557,13 +1575,13 @@
         <v>5</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1571,22 +1589,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1594,25 +1612,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1620,25 +1638,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E23" s="1">
         <v>4</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1646,23 +1664,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1670,7 +1688,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -1680,10 +1698,10 @@
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1691,25 +1709,25 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H26" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1717,7 +1735,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -1726,13 +1744,13 @@
         <v>2</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1740,25 +1758,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H28" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1766,25 +1784,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E29" s="1">
         <v>4</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H29" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1792,25 +1810,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H30" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1818,7 +1836,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -1827,13 +1845,13 @@
         <v>5</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1841,7 +1859,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
@@ -1850,13 +1868,13 @@
         <v>1</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H32" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1864,25 +1882,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H33" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1890,25 +1908,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H34" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1916,25 +1934,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H35" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1942,20 +1960,20 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H36" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1963,23 +1981,23 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H37" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1987,22 +2005,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="H38" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2010,25 +2028,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="H39" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2036,23 +2054,23 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="H40" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2060,25 +2078,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="H41" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2086,23 +2104,23 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="H42" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2110,25 +2128,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="H43" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2136,25 +2154,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="H44" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2162,25 +2180,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E45" s="1">
         <v>4</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="H45" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
